--- a/quantum_hardware_testing_20250501.xlsx
+++ b/quantum_hardware_testing_20250501.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl23026\Nutstore\1\Nutstore\Workspace\quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D9CD7-4738-472F-ABEC-09A748790A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC115A85-408E-42FD-A092-B2B9D7B97FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IBM hardware 20250501" sheetId="1" r:id="rId1"/>
+    <sheet name="AER" sheetId="2" r:id="rId2"/>
+    <sheet name="Simulator" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -211,15 +213,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,14 +788,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>16772519</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -843,4 +844,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FD886-4C40-49BC-80B6-A8808BDAD017}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F71AD9-B153-47BF-A3B6-15219E952424}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/quantum_hardware_testing_20250501.xlsx
+++ b/quantum_hardware_testing_20250501.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl23026\Nutstore\1\Nutstore\Workspace\quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC115A85-408E-42FD-A092-B2B9D7B97FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5493E99-03C2-448C-AEEB-E2D863C98D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBM hardware 20250501" sheetId="1" r:id="rId1"/>
-    <sheet name="AER" sheetId="2" r:id="rId2"/>
-    <sheet name="Simulator" sheetId="3" r:id="rId3"/>
+    <sheet name="Optimizer_Ansatz" sheetId="4" r:id="rId2"/>
+    <sheet name="AER" sheetId="2" r:id="rId3"/>
+    <sheet name="Noisy fackbackend" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
   <si>
     <t>This is the testing of main_VQE_heat.py code on the IBM quantum hardware for backend1 option</t>
   </si>
@@ -165,6 +166,63 @@
   </si>
   <si>
     <t>Canceled after 4m 21s 41ms</t>
+  </si>
+  <si>
+    <t>qubit number</t>
+  </si>
+  <si>
+    <t>dimension of Laplacian</t>
+  </si>
+  <si>
+    <t>ansatz</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>EfficientSU2</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>SPSA</t>
+  </si>
+  <si>
+    <t>COBYLA</t>
+  </si>
+  <si>
+    <t>SLSQP</t>
+  </si>
+  <si>
+    <t>P_BFGS</t>
+  </si>
+  <si>
+    <t>TwoLocal</t>
+  </si>
+  <si>
+    <t>PauliTwoDesign</t>
+  </si>
+  <si>
+    <t>lambda1 from VQE</t>
+  </si>
+  <si>
+    <t>Time of VQE</t>
+  </si>
+  <si>
+    <t>lambda1 from numpy</t>
+  </si>
+  <si>
+    <t>Time of numpy</t>
+  </si>
+  <si>
+    <t>lambda1 from eigsh</t>
+  </si>
+  <si>
+    <t>Time for eigsh</t>
+  </si>
+  <si>
+    <t>JobID (Uconn HPC)</t>
   </si>
 </sst>
 </file>
@@ -503,14 +561,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
@@ -847,25 +905,734 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FD886-4C40-49BC-80B6-A8808BDAD017}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE26B11F-50C5-4099-8A83-9E9E20D94F52}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F71AD9-B153-47BF-A3B6-15219E952424}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FD886-4C40-49BC-80B6-A8808BDAD017}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F71AD9-B153-47BF-A3B6-15219E952424}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/quantum_hardware_testing_20250501.xlsx
+++ b/quantum_hardware_testing_20250501.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl23026\Nutstore\1\Nutstore\Workspace\quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5493E99-03C2-448C-AEEB-E2D863C98D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0642F7-9C0E-4B2A-A8EF-E0E8D38D476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="66">
   <si>
     <t>This is the testing of main_VQE_heat.py code on the IBM quantum hardware for backend1 option</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>JobID (Uconn HPC)</t>
+  </si>
+  <si>
+    <t>memory usage</t>
   </si>
 </sst>
 </file>
@@ -906,10 +909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE26B11F-50C5-4099-8A83-9E9E20D94F52}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +930,7 @@
     <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -961,8 +964,14 @@
       <c r="K1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18994027</v>
+      </c>
       <c r="B2">
         <v>5</v>
       </c>
@@ -973,10 +982,13 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18994073</v>
+      </c>
       <c r="B3">
         <v>5</v>
       </c>
@@ -987,10 +999,13 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18994080</v>
+      </c>
       <c r="B4">
         <v>5</v>
       </c>
@@ -1001,10 +1016,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18994083</v>
+      </c>
       <c r="B5">
         <v>5</v>
       </c>
@@ -1015,10 +1033,13 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18994090</v>
+      </c>
       <c r="B6">
         <v>5</v>
       </c>
@@ -1029,80 +1050,89 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18994236</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18994250</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18994251</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -1113,10 +1143,10 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
@@ -1127,10 +1157,10 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>5</v>
       </c>
@@ -1141,10 +1171,10 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5</v>
       </c>
@@ -1155,10 +1185,10 @@
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -1169,7 +1199,7 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/quantum_hardware_testing_20250501.xlsx
+++ b/quantum_hardware_testing_20250501.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl23026\Nutstore\1\Nutstore\Workspace\quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0642F7-9C0E-4B2A-A8EF-E0E8D38D476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E9A152-D2A8-4A12-A010-7E7B16C8F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
   <si>
     <t>This is the testing of main_VQE_heat.py code on the IBM quantum hardware for backend1 option</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>memory usage</t>
+  </si>
+  <si>
+    <t>928KB</t>
+  </si>
+  <si>
+    <t>936KB</t>
+  </si>
+  <si>
+    <t>8.56GB</t>
+  </si>
+  <si>
+    <t>241.67MB</t>
+  </si>
+  <si>
+    <t>1.16MB</t>
+  </si>
+  <si>
+    <t>8.87GB</t>
   </si>
 </sst>
 </file>
@@ -911,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE26B11F-50C5-4099-8A83-9E9E20D94F52}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +942,7 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
@@ -984,6 +1002,27 @@
       <c r="E2" t="s">
         <v>52</v>
       </c>
+      <c r="F2">
+        <v>250.5</v>
+      </c>
+      <c r="G2">
+        <v>1.28</v>
+      </c>
+      <c r="H2">
+        <v>9.8620000000000001</v>
+      </c>
+      <c r="I2">
+        <v>8.2600000000000002E-4</v>
+      </c>
+      <c r="J2">
+        <v>9.8620000000000001</v>
+      </c>
+      <c r="K2">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1001,6 +1040,15 @@
       <c r="E3" t="s">
         <v>53</v>
       </c>
+      <c r="F3">
+        <v>127.9</v>
+      </c>
+      <c r="G3">
+        <v>4.78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1018,6 +1066,15 @@
       <c r="E4" t="s">
         <v>54</v>
       </c>
+      <c r="F4">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="G4">
+        <v>21.12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1035,6 +1092,15 @@
       <c r="E5" t="s">
         <v>55</v>
       </c>
+      <c r="F5">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="G5">
+        <v>282.83999999999997</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1052,10 +1118,19 @@
       <c r="E6" t="s">
         <v>51</v>
       </c>
+      <c r="F6">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="G6">
+        <v>1778.83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>18994236</v>
+        <v>18994401</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1069,10 +1144,19 @@
       <c r="E7" t="s">
         <v>52</v>
       </c>
+      <c r="F7">
+        <v>746.3</v>
+      </c>
+      <c r="G7">
+        <v>1.44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>18994250</v>
+        <v>18994593</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1086,10 +1170,19 @@
       <c r="E8" t="s">
         <v>53</v>
       </c>
+      <c r="F8">
+        <v>106.1</v>
+      </c>
+      <c r="G8">
+        <v>5.61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18994251</v>
+        <v>18994600</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1103,8 +1196,20 @@
       <c r="E9" t="s">
         <v>54</v>
       </c>
+      <c r="F9">
+        <v>10.09</v>
+      </c>
+      <c r="G9">
+        <v>23.83</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18994607</v>
+      </c>
       <c r="B10">
         <v>5</v>
       </c>
@@ -1117,8 +1222,20 @@
       <c r="E10" t="s">
         <v>55</v>
       </c>
+      <c r="F10">
+        <v>31.29</v>
+      </c>
+      <c r="G10">
+        <v>382.37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>18994609</v>
+      </c>
       <c r="B11">
         <v>5</v>
       </c>

--- a/quantum_hardware_testing_20250501.xlsx
+++ b/quantum_hardware_testing_20250501.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl23026\Nutstore\1\Nutstore\Workspace\quantum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Nutstore\1\Nutstore\Workspace\quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E9A152-D2A8-4A12-A010-7E7B16C8F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF1DD96-38A9-4B06-861E-D31743E032CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBM hardware 20250501" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
   <si>
     <t>This is the testing of main_VQE_heat.py code on the IBM quantum hardware for backend1 option</t>
   </si>
@@ -244,13 +244,109 @@
   </si>
   <si>
     <t>8.87GB</t>
+  </si>
+  <si>
+    <t>218.79MB</t>
+  </si>
+  <si>
+    <t>10.53GB</t>
+  </si>
+  <si>
+    <t>lambda1 analytical</t>
+  </si>
+  <si>
+    <t>241.97MB</t>
+  </si>
+  <si>
+    <t>Memory (This will be total memory not only VQE)</t>
+  </si>
+  <si>
+    <t>260.31MB</t>
+  </si>
+  <si>
+    <t>254.14MB</t>
+  </si>
+  <si>
+    <t>Time for constructing all Pauli string</t>
+  </si>
+  <si>
+    <t>SparsePauliOp.from_operator</t>
+  </si>
+  <si>
+    <t>SparsePauliOp(string,coeff)</t>
+  </si>
+  <si>
+    <t>63.73GB</t>
+  </si>
+  <si>
+    <t>OOM</t>
+  </si>
+  <si>
+    <t>593.11MB</t>
+  </si>
+  <si>
+    <t>276.09MB</t>
+  </si>
+  <si>
+    <t>1.16GB</t>
+  </si>
+  <si>
+    <t>203GB</t>
+  </si>
+  <si>
+    <t>64.39GB</t>
+  </si>
+  <si>
+    <t>528.96MB</t>
+  </si>
+  <si>
+    <t>classical &gt;16GB</t>
+  </si>
+  <si>
+    <t>JobID (NREL)</t>
+  </si>
+  <si>
+    <t>19000296, 19015542</t>
+  </si>
+  <si>
+    <t>19000299, 19015553</t>
+  </si>
+  <si>
+    <t>19000816 (oom),  19015566 (preempt)</t>
+  </si>
+  <si>
+    <t>19000559, 19018718</t>
+  </si>
+  <si>
+    <t>19000825, 19019285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000826, 19019299 </t>
+  </si>
+  <si>
+    <t>14 (OOM 1TB)</t>
+  </si>
+  <si>
+    <t>12 (OOM 1TB)</t>
+  </si>
+  <si>
+    <t>13 (OOM 8TB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For n=1, this memory is both VQE and classical. </t>
+  </si>
+  <si>
+    <t>13 (more than 100 hrs for 274 iter)</t>
+  </si>
+  <si>
+    <t>10 (more than 100 hrs for 17 iteration)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +361,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +379,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,6 +415,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,23 +703,23 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="3" max="4" width="21.1171875" customWidth="1"/>
+    <col min="5" max="5" width="26.41015625" customWidth="1"/>
+    <col min="6" max="6" width="29.87890625" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,7 +745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>16762416</v>
       </c>
@@ -654,7 +771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>16749856</v>
       </c>
@@ -680,7 +797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>16753790</v>
       </c>
@@ -706,7 +823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>16760378</v>
       </c>
@@ -732,7 +849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>16771763</v>
       </c>
@@ -758,7 +875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>16772220</v>
       </c>
@@ -784,7 +901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>16773151</v>
       </c>
@@ -810,7 +927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>16773614</v>
       </c>
@@ -836,7 +953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>16773636</v>
       </c>
@@ -862,12 +979,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>16772519</v>
       </c>
@@ -876,7 +993,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>16758299</v>
       </c>
@@ -893,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
         <v>16759910</v>
       </c>
@@ -929,26 +1046,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE26B11F-50C5-4099-8A83-9E9E20D94F52}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5859375" customWidth="1"/>
+    <col min="2" max="2" width="20.703125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.87890625" customWidth="1"/>
+    <col min="6" max="6" width="21.87890625" customWidth="1"/>
+    <col min="7" max="7" width="19.5859375" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.29296875" customWidth="1"/>
+    <col min="10" max="10" width="16.87890625" customWidth="1"/>
+    <col min="11" max="11" width="20.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -986,7 +1103,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>18994027</v>
       </c>
@@ -1024,7 +1141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>18994073</v>
       </c>
@@ -1050,7 +1167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>18994080</v>
       </c>
@@ -1076,7 +1193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>18994083</v>
       </c>
@@ -1102,7 +1219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>18994090</v>
       </c>
@@ -1128,7 +1245,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>18994401</v>
       </c>
@@ -1154,7 +1271,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>18994593</v>
       </c>
@@ -1180,7 +1297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>18994600</v>
       </c>
@@ -1206,7 +1323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>18994607</v>
       </c>
@@ -1232,7 +1349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>18994609</v>
       </c>
@@ -1248,8 +1365,17 @@
       <c r="E11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>29.5</v>
+      </c>
+      <c r="G11">
+        <v>2516.4699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>18994679</v>
+      </c>
       <c r="B12">
         <v>5</v>
       </c>
@@ -1262,8 +1388,20 @@
       <c r="E12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>669.08</v>
+      </c>
+      <c r="G12">
+        <v>1.03</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>18994728</v>
+      </c>
       <c r="B13">
         <v>5</v>
       </c>
@@ -1276,8 +1414,20 @@
       <c r="E13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>59.51</v>
+      </c>
+      <c r="G13">
+        <v>4.0029000000000003</v>
+      </c>
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>18994729</v>
+      </c>
       <c r="B14">
         <v>5</v>
       </c>
@@ -1290,8 +1440,20 @@
       <c r="E14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>63.05</v>
+      </c>
+      <c r="G14">
+        <v>7.6066000000000003</v>
+      </c>
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>18994735</v>
+      </c>
       <c r="B15">
         <v>5</v>
       </c>
@@ -1304,8 +1466,20 @@
       <c r="E15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>91.266000000000005</v>
+      </c>
+      <c r="G15">
+        <v>276.56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>18994795</v>
+      </c>
       <c r="B16">
         <v>5</v>
       </c>
@@ -1317,6 +1491,12 @@
       </c>
       <c r="E16" t="s">
         <v>51</v>
+      </c>
+      <c r="F16">
+        <v>92.26</v>
+      </c>
+      <c r="G16">
+        <v>818.71799999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1326,315 +1506,788 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FD886-4C40-49BC-80B6-A8808BDAD017}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="27.87890625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="26.703125" customWidth="1"/>
+    <col min="5" max="5" width="25.703125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.703125" customWidth="1"/>
+    <col min="8" max="8" width="16.87890625" customWidth="1"/>
+    <col min="9" max="9" width="25.703125" customWidth="1"/>
+    <col min="10" max="10" width="19.703125" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="28.703125" customWidth="1"/>
+    <col min="15" max="15" width="22.29296875" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>64</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>18994600</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <v>10.095000000000001</v>
+      </c>
+      <c r="H2">
+        <v>23.83</v>
+      </c>
+      <c r="I2">
+        <v>9.8620000000000001</v>
+      </c>
+      <c r="J2">
+        <v>8.0800000000000002E-4</v>
+      </c>
+      <c r="K2">
+        <v>9.8620000000000001</v>
+      </c>
+      <c r="L2">
+        <v>3.0140000000000002E-3</v>
+      </c>
+      <c r="M2">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="N2">
+        <v>1.7762184143066401E-4</v>
+      </c>
+      <c r="O2">
+        <v>9.42230224609375E-4</v>
+      </c>
+      <c r="P2">
+        <v>1.3947486877441401E-4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>19000232</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>302.7183</v>
+      </c>
+      <c r="H3">
+        <v>41.628999999999998</v>
+      </c>
+      <c r="I3">
+        <v>9.86768</v>
+      </c>
+      <c r="J3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="K3">
+        <v>9.86768</v>
+      </c>
+      <c r="L3">
+        <v>6.7780000000000002E-3</v>
+      </c>
+      <c r="M3">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="N3">
+        <v>7.4267387390136697E-4</v>
+      </c>
+      <c r="O3">
+        <v>1.6317367553710901E-3</v>
+      </c>
+      <c r="P3">
+        <v>1.98125839233398E-4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>19000233</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>27662.82</v>
+      </c>
+      <c r="H4">
+        <v>132.43</v>
+      </c>
+      <c r="I4">
+        <v>9.8694799999999994</v>
+      </c>
+      <c r="J4">
+        <v>0.13922799999999999</v>
+      </c>
+      <c r="K4">
+        <v>9.8694799999999994</v>
+      </c>
+      <c r="L4">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="M4">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="N4">
+        <v>4.4891834259033203E-2</v>
+      </c>
+      <c r="O4">
+        <v>5.5208206176757804E-3</v>
+      </c>
+      <c r="P4">
+        <v>1.1880397796630801E-3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>19000239</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>2103501.5296787801</v>
+      </c>
+      <c r="H5">
+        <v>474.32977390289301</v>
+      </c>
+      <c r="I5">
+        <v>9.8695966747014801</v>
+      </c>
+      <c r="J5">
+        <v>3.5574467182159402</v>
+      </c>
+      <c r="K5">
+        <v>9.86959667</v>
+      </c>
+      <c r="L5">
+        <v>6.2161159515380797</v>
+      </c>
+      <c r="M5">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="N5">
+        <v>4.7963616847991899</v>
+      </c>
+      <c r="O5">
+        <v>7.5911998748779297E-2</v>
+      </c>
+      <c r="P5">
+        <v>5.6555271148681597E-3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6">
+        <v>19000278</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10378400</v>
+      </c>
+      <c r="C6" s="6">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="6">
+        <v>35174050.6473253</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1159.49000549316</v>
+      </c>
+      <c r="I6" s="6">
+        <v>9.8696039198639802</v>
+      </c>
+      <c r="J6" s="6">
+        <v>79.663639307022095</v>
+      </c>
+      <c r="K6" s="6">
+        <v>9.8696039100000004</v>
+      </c>
+      <c r="L6" s="6">
+        <v>10056.069883108101</v>
+      </c>
+      <c r="M6" s="6">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="N6" s="6">
+        <v>441.33283662795998</v>
+      </c>
+      <c r="O6" s="6">
+        <v>9.8670790195464999</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.12728929519653301</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="6">
+        <v>10387054</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="6">
+        <v>133572991.322999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3607.6773717403398</v>
+      </c>
+      <c r="I7" s="6">
+        <v>9.8696042895860696</v>
+      </c>
+      <c r="J7" s="6">
+        <v>625.93323755264203</v>
+      </c>
+      <c r="K7" s="6">
+        <v>9.86960427</v>
+      </c>
+      <c r="L7" s="6">
+        <v>46896.3012604713</v>
+      </c>
+      <c r="M7" s="6">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="N7" s="6">
+        <v>6253.6205704212098</v>
+      </c>
+      <c r="O7" s="6">
+        <v>183.82471084594701</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.46883130073547302</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>836.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="6">
+        <v>19000281</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10379660</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>19000288</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>167.23887386868</v>
+      </c>
+      <c r="H9">
+        <v>115.930312156677</v>
+      </c>
+      <c r="I9">
+        <v>19.724305271646699</v>
+      </c>
+      <c r="J9">
+        <v>2.2599999904632502</v>
+      </c>
+      <c r="K9">
+        <v>19.724305269999999</v>
+      </c>
+      <c r="L9">
+        <v>8.9182376861572196E-2</v>
+      </c>
+      <c r="M9">
+        <v>19.739208802178702</v>
+      </c>
+      <c r="N9">
+        <v>2.2602081298828101E-4</v>
+      </c>
+      <c r="O9">
+        <v>1.4474391937255801E-3</v>
+      </c>
+      <c r="P9">
+        <v>1.13799571990966E-2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>19000290</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <v>6763.12344758788</v>
+      </c>
+      <c r="H10">
+        <v>261.878658294677</v>
+      </c>
+      <c r="I10">
+        <v>19.735366533633702</v>
+      </c>
+      <c r="J10">
+        <v>120.434021949768</v>
+      </c>
+      <c r="K10">
+        <v>19.73536653</v>
+      </c>
+      <c r="L10">
+        <v>9.1357693672180105</v>
+      </c>
+      <c r="N10">
+        <v>9.2148780822753895E-4</v>
+      </c>
+      <c r="O10">
+        <v>2.5641918182372999E-3</v>
+      </c>
+      <c r="P10">
+        <v>0.31651139259338301</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="6">
+        <v>265195.07116257498</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3289.2174227237701</v>
+      </c>
+      <c r="N11" s="6">
+        <v>4.3572187423705999E-2</v>
+      </c>
+      <c r="O11" s="6">
+        <v>7.6899528503417899E-3</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10400626</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3913833.7807996301</v>
+      </c>
+      <c r="H12" s="2">
+        <v>130459.805255174</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10406782</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="2">
+        <v>10387065</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="5">
+        <v>19000806</v>
+      </c>
+      <c r="C15" s="5">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="6">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1470.7</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1488.8259217739101</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2.08616256713867E-4</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2.1061897277832001E-3</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2">
+        <v>14697.8708852859</v>
+      </c>
+      <c r="H17" s="2">
+        <v>21476.3905346393</v>
+      </c>
+      <c r="M17" s="2">
+        <v>29.608813203267999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10435556</v>
+      </c>
+      <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2">
+        <v>19000929</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10387068</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2">
+        <v>19000937</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10387080</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="2">
+        <v>10387093</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2">
+        <v>19000939</v>
+      </c>
+      <c r="C22" s="2">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
+      <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1646,21 +2299,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.703125" customWidth="1"/>
+    <col min="3" max="3" width="28.1171875" customWidth="1"/>
+    <col min="4" max="4" width="26.29296875" customWidth="1"/>
+    <col min="5" max="5" width="20.1171875" customWidth="1"/>
+    <col min="6" max="6" width="21.1171875" customWidth="1"/>
+    <col min="7" max="7" width="24.703125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.87890625" customWidth="1"/>
+    <col min="10" max="10" width="24.5859375" customWidth="1"/>
+    <col min="11" max="11" width="16.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1695,7 +2348,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B2">
         <v>5</v>
       </c>
@@ -1709,7 +2362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>6</v>
       </c>
@@ -1723,7 +2376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>8</v>
       </c>
@@ -1737,7 +2390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>10</v>
       </c>
@@ -1751,7 +2404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>12</v>
       </c>
@@ -1765,7 +2418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>14</v>
       </c>
